--- a/spliced/struggle/2023-04-06_18-06-23/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-06-23/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,221 +452,331 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.4257730841636657</v>
+        <v>-0.0058032199740409</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.438740372657776</v>
+        <v>0.0117591563612222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.180816113948822</v>
+        <v>0.0122173046693205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2063197344541549</v>
+        <v>-0.0114537235349416</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5047274231910706</v>
+        <v>-0.0096211275085806</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1090394482016563</v>
+        <v>-0.0482583530247211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.435685992240906</v>
+        <v>0.0445931628346443</v>
       </c>
       <c r="B4" t="n">
-        <v>5.099197864532471</v>
+        <v>0.1122464910149574</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6409503817558289</v>
+        <v>-0.0378736443817615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7269296646118164</v>
+        <v>0.0612392425537109</v>
       </c>
       <c r="B5" t="n">
-        <v>4.458247184753418</v>
+        <v>0.09758572280406951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2814561724662781</v>
+        <v>-0.0021380283869802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2370157092809677</v>
+        <v>0.0088575463742017</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7996225953102112</v>
+        <v>0.1237002089619636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1328631937503814</v>
+        <v>0.0548251569271087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2102903574705124</v>
+        <v>-0.0221438650041818</v>
       </c>
       <c r="B7" t="n">
-        <v>1.452026724815369</v>
+        <v>0.0061086523346602</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2237294018268585</v>
+        <v>0.0325285755097866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3715587854385376</v>
+        <v>0.0332921557128429</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4751004576683044</v>
+        <v>-0.0615446716547012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1111774742603302</v>
+        <v>0.093156948685646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1693623960018158</v>
+        <v>-0.4489859640598297</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.752572417259216</v>
+        <v>-1.353219270706177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1539380401372909</v>
+        <v>0.4497495293617248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.307862520217896</v>
+        <v>-0.3888157308101654</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.349499702453613</v>
+        <v>-3.63083028793335</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.575574159622192</v>
+        <v>-0.1369865238666534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3645338416099548</v>
+        <v>-0.6565274000167847</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.762179851531982</v>
+        <v>-2.371837139129639</v>
       </c>
       <c r="C11" t="n">
-        <v>0.608421802520752</v>
+        <v>0.1600466966629028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.3593414723873138</v>
+        <v>-0.4257730841636657</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.416888236999512</v>
+        <v>-1.438740372657776</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4506658315658569</v>
+        <v>0.180816113948822</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3178026378154754</v>
+        <v>-0.2063197344541549</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.223715782165527</v>
+        <v>0.5047274231910706</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2168571650981903</v>
+        <v>-0.1090394482016563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.042302418500185</v>
+        <v>1.435685992240906</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5458080768585205</v>
+        <v>5.099197864532471</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195171445608139</v>
+        <v>-0.6409503817558289</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.255175352096558</v>
+        <v>0.7269296646118164</v>
       </c>
       <c r="B15" t="n">
-        <v>4.058435916900635</v>
+        <v>4.458247184753418</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6265950202941895</v>
+        <v>0.2814561724662781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.706299304962158</v>
+        <v>0.2370157092809677</v>
       </c>
       <c r="B16" t="n">
-        <v>4.895015716552734</v>
+        <v>0.7996225953102112</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6637051105499268</v>
+        <v>0.1328631937503814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3026837408542633</v>
+        <v>0.2102903574705124</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5484042763710022</v>
+        <v>1.452026724815369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1058324053883552</v>
+        <v>0.2237294018268585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2704605758190155</v>
+        <v>-0.3715587854385376</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6455318331718445</v>
+        <v>0.4751004576683044</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1504255682229995</v>
+        <v>0.1111774742603302</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.4751004576683044</v>
+        <v>0.1693623960018158</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1533271819353103</v>
+        <v>-1.752572417259216</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3729332387447357</v>
+        <v>0.1539380401372909</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3394883573055267</v>
+        <v>-1.307862520217896</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6884451508522034</v>
+        <v>-5.349499702453613</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1850921660661697</v>
+        <v>-1.575574159622192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.3645338416099548</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-2.762179851531982</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.608421802520752</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.3593414723873138</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.416888236999512</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4506658315658569</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3178026378154754</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.223715782165527</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2168571650981903</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.042302418500185</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5458080768585205</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.195171445608139</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.255175352096558</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.058435916900635</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6265950202941895</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.706299304962158</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.895015716552734</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6637051105499268</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3026837408542633</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5484042763710022</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1058324053883552</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.2704605758190155</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6455318331718445</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1504255682229995</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.4751004576683044</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1533271819353103</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3729332387447357</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.3394883573055267</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.6884451508522034</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.1850921660661697</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>-0.2115120887756347</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B31" t="n">
         <v>-0.2267837226390838</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C31" t="n">
         <v>-0.3090978264808655</v>
       </c>
     </row>
